--- a/Projects/gender_pay_gap/data/input/gender_pay_gap/202304_uk_gender_pay_gap_pct.xlsx
+++ b/Projects/gender_pay_gap/data/input/gender_pay_gap/202304_uk_gender_pay_gap_pct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bistu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bistu\datalytiQs\Projects\gender_pay_gap\data\input\gender_pay_gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0E631-B02B-4C17-922C-1899411AE0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C893D52-DAF3-4506-BB4D-E2272F696C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -4118,29 +4118,57 @@
     <xf numFmtId="4" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="4" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="21" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4153,41 +4181,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="21" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4507,7 +4507,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
@@ -4772,93 +4772,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="71"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="59"/>
     </row>
     <row r="2" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
     </row>
     <row r="4" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
     </row>
     <row r="5" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
@@ -4889,152 +4889,152 @@
       <c r="Z5" s="23"/>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
     </row>
     <row r="7" spans="1:26" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
     </row>
     <row r="8" spans="1:26" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
     </row>
     <row r="9" spans="1:26" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
     </row>
     <row r="10" spans="1:26" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
     </row>
     <row r="11" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
@@ -5065,92 +5065,92 @@
       <c r="Z11" s="23"/>
     </row>
     <row r="12" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
     </row>
     <row r="13" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -5181,178 +5181,178 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
     </row>
     <row r="19" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -5383,92 +5383,92 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
@@ -5499,210 +5499,210 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
     </row>
     <row r="30" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
     </row>
     <row r="31" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
     </row>
     <row r="32" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
     </row>
     <row r="33" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
     </row>
     <row r="34" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
@@ -5735,62 +5735,62 @@
       <c r="Z34" s="23"/>
     </row>
     <row r="35" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
     </row>
     <row r="36" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
     </row>
     <row r="37" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
@@ -5826,178 +5826,178 @@
       <c r="A38" s="21"/>
     </row>
     <row r="39" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
     </row>
     <row r="40" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
     </row>
     <row r="41" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
     </row>
     <row r="42" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="56"/>
+      <c r="X42" s="56"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
     </row>
     <row r="43" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="52"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="56"/>
+      <c r="Z43" s="56"/>
     </row>
     <row r="44" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
     </row>
     <row r="45" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -6031,29 +6031,29 @@
       <c r="B46" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="55"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="65"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="75"/>
     </row>
     <row r="48" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
@@ -6062,40 +6062,40 @@
       <c r="C48" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="68"/>
     </row>
     <row r="49" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="68"/>
     </row>
     <row r="50" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="55"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="68"/>
     </row>
     <row r="51" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
@@ -6121,94 +6121,94 @@
       <c r="B55" s="19"/>
     </row>
     <row r="56" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
+      <c r="W56" s="56"/>
+      <c r="X56" s="56"/>
+      <c r="Y56" s="56"/>
+      <c r="Z56" s="56"/>
     </row>
     <row r="57" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="56"/>
+      <c r="W57" s="56"/>
+      <c r="X57" s="56"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="56"/>
     </row>
     <row r="58" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
     </row>
     <row r="59" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
@@ -6239,130 +6239,130 @@
       <c r="Z59" s="22"/>
     </row>
     <row r="60" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="56"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="56"/>
+      <c r="V60" s="56"/>
+      <c r="W60" s="56"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="56"/>
+      <c r="Z60" s="56"/>
     </row>
     <row r="61" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+      <c r="W61" s="56"/>
+      <c r="X61" s="56"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="56"/>
     </row>
     <row r="62" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="56"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56"/>
+      <c r="V62" s="56"/>
+      <c r="W62" s="56"/>
+      <c r="X62" s="56"/>
+      <c r="Y62" s="56"/>
+      <c r="Z62" s="56"/>
     </row>
     <row r="63" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
+      <c r="V63" s="56"/>
+      <c r="W63" s="56"/>
+      <c r="X63" s="56"/>
+      <c r="Y63" s="56"/>
+      <c r="Z63" s="56"/>
     </row>
     <row r="64" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59" t="s">
+      <c r="A65" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -6388,11 +6388,11 @@
       <c r="Z65" s="12"/>
     </row>
     <row r="66" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
     </row>
     <row r="67" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
@@ -6402,18 +6402,18 @@
       <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
     </row>
     <row r="69" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
     </row>
     <row r="70" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
@@ -6423,17 +6423,42 @@
       <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="51" t="s">
+      <c r="A71" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
     </row>
     <row r="72" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O72" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="A57:Z57"/>
+    <mergeCell ref="A58:Z58"/>
+    <mergeCell ref="A60:Z60"/>
+    <mergeCell ref="A61:Z63"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A32:Z33"/>
+    <mergeCell ref="A35:Z36"/>
+    <mergeCell ref="A39:Z39"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="A56:Z56"/>
+    <mergeCell ref="A40:Z41"/>
+    <mergeCell ref="A42:Z44"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="A24:Z25"/>
+    <mergeCell ref="A27:Z27"/>
+    <mergeCell ref="A28:Z28"/>
+    <mergeCell ref="A29:Z30"/>
+    <mergeCell ref="A31:Z31"/>
     <mergeCell ref="A23:Z23"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="A3:Z4"/>
@@ -6446,31 +6471,6 @@
     <mergeCell ref="A16:Z17"/>
     <mergeCell ref="A18:Z19"/>
     <mergeCell ref="A20:Z21"/>
-    <mergeCell ref="A24:Z25"/>
-    <mergeCell ref="A27:Z27"/>
-    <mergeCell ref="A28:Z28"/>
-    <mergeCell ref="A29:Z30"/>
-    <mergeCell ref="A31:Z31"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="A56:Z56"/>
-    <mergeCell ref="A40:Z41"/>
-    <mergeCell ref="A42:Z44"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="A32:Z33"/>
-    <mergeCell ref="A35:Z36"/>
-    <mergeCell ref="A39:Z39"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="A57:Z57"/>
-    <mergeCell ref="A58:Z58"/>
-    <mergeCell ref="A60:Z60"/>
-    <mergeCell ref="A61:Z63"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6490,7 +6490,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D564"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -14095,8 +14095,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D564"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A525" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.88671875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -14248,7 +14248,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>72</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>74</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>76</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>38.47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>84</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>25.49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>88</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>32.56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>96</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>36.28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>98</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>36.28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>100</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>102</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>111</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>113</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>115</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>121</v>
       </c>
@@ -14596,7 +14596,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>123</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>15.11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>125</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>127</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>129</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
         <v>131</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>13.33</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>133</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
         <v>139</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
         <v>143</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
         <v>145</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="46" t="s">
         <v>147</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>16.78</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
         <v>161</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>13.81</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
         <v>163</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>21.54</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
         <v>165</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>18.91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
         <v>167</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
         <v>173</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
         <v>177</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
         <v>191</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
         <v>207</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
         <v>217</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="46" t="s">
         <v>219</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>19.22</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
         <v>241</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="46" t="s">
         <v>263</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>20.14</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="46" t="s">
         <v>321</v>
       </c>
@@ -16025,16 +16025,16 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="75" t="s">
+      <c r="A140" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="B140" s="76" t="s">
+      <c r="B140" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="C140" s="77">
+      <c r="C140" s="53">
         <v>171</v>
       </c>
-      <c r="D140" s="78">
+      <c r="D140" s="54">
         <v>24.97</v>
       </c>
     </row>
@@ -16080,7 +16080,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="46" t="s">
         <v>335</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="46" t="s">
         <v>339</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>22.59</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="46" t="s">
         <v>357</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="46" t="s">
         <v>359</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="46" t="s">
         <v>369</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="46" t="s">
         <v>371</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="46" t="s">
         <v>373</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>27.09</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="46" t="s">
         <v>375</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="46" t="s">
         <v>379</v>
       </c>
@@ -16430,7 +16430,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="46" t="s">
         <v>385</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>21.14</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="46" t="s">
         <v>409</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>20.61</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="46" t="s">
         <v>417</v>
       </c>
@@ -16682,7 +16682,7 @@
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="46" t="s">
         <v>421</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>16.48</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="46" t="s">
         <v>425</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="46" t="s">
         <v>427</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="46" t="s">
         <v>441</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="46" t="s">
         <v>453</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="46" t="s">
         <v>465</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="46" t="s">
         <v>479</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="46" t="s">
         <v>481</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>20.67</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="46" t="s">
         <v>499</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="46" t="s">
         <v>501</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="46" t="s">
         <v>503</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>18.34</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="46" t="s">
         <v>521</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>10.91</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="46" t="s">
         <v>539</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>14.41</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="46" t="s">
         <v>573</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>12.19</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="46" t="s">
         <v>585</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="46" t="s">
         <v>593</v>
       </c>
@@ -17898,7 +17898,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="46" t="s">
         <v>595</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="46" t="s">
         <v>597</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>13.76</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="46" t="s">
         <v>613</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="46" t="s">
         <v>615</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="46" t="s">
         <v>625</v>
       </c>
@@ -18220,7 +18220,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="46" t="s">
         <v>641</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="46" t="s">
         <v>647</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="46" t="s">
         <v>703</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="46" t="s">
         <v>709</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="46" t="s">
         <v>715</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="46" t="s">
         <v>719</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="46" t="s">
         <v>723</v>
       </c>
@@ -18906,7 +18906,7 @@
         <v>16.989999999999998</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="46" t="s">
         <v>739</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="46" t="s">
         <v>743</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="46" t="s">
         <v>747</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="46" t="s">
         <v>751</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="46" t="s">
         <v>753</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="46" t="s">
         <v>767</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="46" t="s">
         <v>823</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>13.51</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="42" t="s">
         <v>831</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="46" t="s">
         <v>871</v>
       </c>
@@ -19844,7 +19844,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="46" t="s">
         <v>873</v>
       </c>
@@ -20026,7 +20026,7 @@
         <v>12.02</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="46" t="s">
         <v>899</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="46" t="s">
         <v>901</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="46" t="s">
         <v>903</v>
       </c>
@@ -20066,7 +20066,7 @@
       </c>
       <c r="D428" s="48"/>
     </row>
-    <row r="429" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="46" t="s">
         <v>906</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="46" t="s">
         <v>910</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="46" t="s">
         <v>942</v>
       </c>
@@ -20358,7 +20358,7 @@
         <v>12.16</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="46" t="s">
         <v>948</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="46" t="s">
         <v>996</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="46" t="s">
         <v>1008</v>
       </c>
@@ -20946,7 +20946,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="46" t="s">
         <v>1032</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="46" t="s">
         <v>1036</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>12.53</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="46" t="s">
         <v>1082</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="46" t="s">
         <v>1098</v>
       </c>
@@ -21604,7 +21604,7 @@
         <v>12.19</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="46" t="s">
         <v>1126</v>
       </c>
@@ -21933,8 +21933,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D564"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -23860,16 +23860,16 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="46" t="s">
+      <c r="A140" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="B140" s="43" t="s">
+      <c r="B140" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="C140" s="47">
+      <c r="C140" s="53">
         <v>63</v>
       </c>
-      <c r="D140" s="48">
+      <c r="D140" s="54">
         <v>31.68</v>
       </c>
     </row>
@@ -29755,8 +29755,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D564"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -31681,16 +31681,16 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="46" t="s">
+      <c r="A140" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="B140" s="43" t="s">
+      <c r="B140" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="C140" s="47">
+      <c r="C140" s="53">
         <v>109</v>
       </c>
-      <c r="D140" s="48">
+      <c r="D140" s="54">
         <v>21.96</v>
       </c>
     </row>
@@ -53246,7 +53246,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>72</v>
       </c>
@@ -53260,7 +53260,7 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>74</v>
       </c>
@@ -53274,7 +53274,7 @@
         <v>24.53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>76</v>
       </c>
@@ -53330,7 +53330,7 @@
         <v>41.99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>84</v>
       </c>
@@ -53358,7 +53358,7 @@
         <v>27.47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>88</v>
       </c>
@@ -53414,7 +53414,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>96</v>
       </c>
@@ -53428,7 +53428,7 @@
         <v>36.950000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>98</v>
       </c>
@@ -53442,7 +53442,7 @@
         <v>36.950000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>100</v>
       </c>
@@ -53456,7 +53456,7 @@
         <v>16.93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>102</v>
       </c>
@@ -53510,7 +53510,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>111</v>
       </c>
@@ -53524,7 +53524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>113</v>
       </c>
@@ -53538,7 +53538,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>115</v>
       </c>
@@ -53580,7 +53580,7 @@
         <v>17.420000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>121</v>
       </c>
@@ -53594,7 +53594,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>123</v>
       </c>
@@ -53608,7 +53608,7 @@
         <v>16.22</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>125</v>
       </c>
@@ -53622,7 +53622,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>127</v>
       </c>
@@ -53636,7 +53636,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>129</v>
       </c>
@@ -53650,7 +53650,7 @@
         <v>15.89</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
         <v>131</v>
       </c>
@@ -53664,7 +53664,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s">
         <v>133</v>
       </c>
@@ -53704,7 +53704,7 @@
       </c>
       <c r="D45" s="48"/>
     </row>
-    <row r="46" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
         <v>139</v>
       </c>
@@ -53732,7 +53732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
         <v>143</v>
       </c>
@@ -53746,7 +53746,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
         <v>145</v>
       </c>
@@ -53758,7 +53758,7 @@
       </c>
       <c r="D49" s="48"/>
     </row>
-    <row r="50" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="46" t="s">
         <v>147</v>
       </c>
@@ -53856,7 +53856,7 @@
         <v>16.739999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
         <v>161</v>
       </c>
@@ -53870,7 +53870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
         <v>163</v>
       </c>
@@ -53884,7 +53884,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
         <v>165</v>
       </c>
@@ -53898,7 +53898,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
         <v>167</v>
       </c>
@@ -53938,7 +53938,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
         <v>173</v>
       </c>
@@ -53966,7 +53966,7 @@
         <v>24.33</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
         <v>177</v>
       </c>
@@ -54064,7 +54064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="46" t="s">
         <v>191</v>
       </c>
@@ -54176,7 +54176,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
         <v>207</v>
       </c>
@@ -54246,7 +54246,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
         <v>217</v>
       </c>
@@ -54260,7 +54260,7 @@
         <v>27.34</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="46" t="s">
         <v>219</v>
       </c>
@@ -54372,7 +54372,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="46" t="s">
         <v>235</v>
       </c>
@@ -54414,7 +54414,7 @@
         <v>19.71</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
         <v>241</v>
       </c>
@@ -54428,7 +54428,7 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="46" t="s">
         <v>243</v>
       </c>
@@ -54566,7 +54566,7 @@
       </c>
       <c r="D107" s="48"/>
     </row>
-    <row r="108" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="46" t="s">
         <v>263</v>
       </c>
@@ -54872,7 +54872,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="46" t="s">
         <v>307</v>
       </c>
@@ -54928,7 +54928,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="46" t="s">
         <v>315</v>
       </c>
@@ -54970,7 +54970,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="46" t="s">
         <v>321</v>
       </c>
@@ -55068,7 +55068,7 @@
         <v>22.11</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="46" t="s">
         <v>335</v>
       </c>
@@ -55096,7 +55096,7 @@
         <v>23.41</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="46" t="s">
         <v>339</v>
       </c>
@@ -55194,7 +55194,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="46" t="s">
         <v>353</v>
       </c>
@@ -55222,7 +55222,7 @@
         <v>27.45</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="46" t="s">
         <v>357</v>
       </c>
@@ -55236,7 +55236,7 @@
         <v>24.65</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="46" t="s">
         <v>359</v>
       </c>
@@ -55278,7 +55278,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="46" t="s">
         <v>365</v>
       </c>
@@ -55292,7 +55292,7 @@
         <v>20.58</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="46" t="s">
         <v>367</v>
       </c>
@@ -55304,7 +55304,7 @@
       </c>
       <c r="D160" s="48"/>
     </row>
-    <row r="161" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="46" t="s">
         <v>369</v>
       </c>
@@ -55318,7 +55318,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="46" t="s">
         <v>371</v>
       </c>
@@ -55332,7 +55332,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="46" t="s">
         <v>373</v>
       </c>
@@ -55346,7 +55346,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="46" t="s">
         <v>375</v>
       </c>
@@ -55374,7 +55374,7 @@
         <v>23.56</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="46" t="s">
         <v>379</v>
       </c>
@@ -55416,7 +55416,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="46" t="s">
         <v>385</v>
       </c>
@@ -55584,7 +55584,7 @@
         <v>21.08</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="46" t="s">
         <v>409</v>
       </c>
@@ -55640,7 +55640,7 @@
         <v>21.36</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="46" t="s">
         <v>417</v>
       </c>
@@ -55668,7 +55668,7 @@
         <v>18.91</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="46" t="s">
         <v>421</v>
       </c>
@@ -55696,7 +55696,7 @@
         <v>18.16</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="46" t="s">
         <v>425</v>
       </c>
@@ -55710,7 +55710,7 @@
         <v>16.46</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="46" t="s">
         <v>427</v>
       </c>
@@ -55794,7 +55794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="46" t="s">
         <v>439</v>
       </c>
@@ -55808,7 +55808,7 @@
         <v>16.59</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="46" t="s">
         <v>441</v>
       </c>
@@ -55822,7 +55822,7 @@
         <v>15.92</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="46" t="s">
         <v>443</v>
       </c>
@@ -55892,7 +55892,7 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="46" t="s">
         <v>453</v>
       </c>
@@ -55906,7 +55906,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="46" t="s">
         <v>455</v>
       </c>
@@ -55974,7 +55974,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="46" t="s">
         <v>465</v>
       </c>
@@ -55998,7 +55998,7 @@
       </c>
       <c r="D210" s="48"/>
     </row>
-    <row r="211" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="46" t="s">
         <v>469</v>
       </c>
@@ -56068,7 +56068,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="46" t="s">
         <v>479</v>
       </c>
@@ -56082,7 +56082,7 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="46" t="s">
         <v>481</v>
       </c>
@@ -56180,7 +56180,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="46" t="s">
         <v>495</v>
       </c>
@@ -56206,7 +56206,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="46" t="s">
         <v>499</v>
       </c>
@@ -56220,7 +56220,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="46" t="s">
         <v>501</v>
       </c>
@@ -56234,7 +56234,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="46" t="s">
         <v>503</v>
       </c>
@@ -56356,7 +56356,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="46" t="s">
         <v>521</v>
       </c>
@@ -56398,7 +56398,7 @@
         <v>15.44</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="46" t="s">
         <v>527</v>
       </c>
@@ -56482,7 +56482,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="46" t="s">
         <v>539</v>
       </c>
@@ -56720,7 +56720,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="46" t="s">
         <v>573</v>
       </c>
@@ -56804,7 +56804,7 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="46" t="s">
         <v>585</v>
       </c>
@@ -56860,7 +56860,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="46" t="s">
         <v>593</v>
       </c>
@@ -56874,7 +56874,7 @@
         <v>15.89</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="46" t="s">
         <v>595</v>
       </c>
@@ -56888,7 +56888,7 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="46" t="s">
         <v>597</v>
       </c>
@@ -56970,7 +56970,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="42" t="s">
         <v>609</v>
       </c>
@@ -56998,7 +56998,7 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="46" t="s">
         <v>613</v>
       </c>
@@ -57012,7 +57012,7 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="46" t="s">
         <v>615</v>
       </c>
@@ -57026,7 +57026,7 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="46" t="s">
         <v>617</v>
       </c>
@@ -57082,7 +57082,7 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="46" t="s">
         <v>625</v>
       </c>
@@ -57166,7 +57166,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="46" t="s">
         <v>637</v>
       </c>
@@ -57194,7 +57194,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="46" t="s">
         <v>641</v>
       </c>
@@ -57222,7 +57222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="46" t="s">
         <v>645</v>
       </c>
@@ -57236,7 +57236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="46" t="s">
         <v>647</v>
       </c>
@@ -57596,7 +57596,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="46" t="s">
         <v>699</v>
       </c>
@@ -57624,7 +57624,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="46" t="s">
         <v>703</v>
       </c>
@@ -57666,7 +57666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="46" t="s">
         <v>709</v>
       </c>
@@ -57680,7 +57680,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="46" t="s">
         <v>711</v>
       </c>
@@ -57708,7 +57708,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="46" t="s">
         <v>715</v>
       </c>
@@ -57736,7 +57736,7 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="46" t="s">
         <v>719</v>
       </c>
@@ -57764,7 +57764,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="46" t="s">
         <v>723</v>
       </c>
@@ -57876,7 +57876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="46" t="s">
         <v>739</v>
       </c>
@@ -57890,7 +57890,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="46" t="s">
         <v>741</v>
       </c>
@@ -57904,7 +57904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="46" t="s">
         <v>743</v>
       </c>
@@ -57932,7 +57932,7 @@
         <v>15.91</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="46" t="s">
         <v>747</v>
       </c>
@@ -57960,7 +57960,7 @@
         <v>18.29</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="46" t="s">
         <v>751</v>
       </c>
@@ -57974,7 +57974,7 @@
         <v>18.07</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="46" t="s">
         <v>753</v>
       </c>
@@ -58072,7 +58072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="46" t="s">
         <v>767</v>
       </c>
@@ -58184,7 +58184,7 @@
         <v>14.39</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="46" t="s">
         <v>783</v>
       </c>
@@ -58198,7 +58198,7 @@
         <v>18.22</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="46" t="s">
         <v>785</v>
       </c>
@@ -58464,7 +58464,7 @@
         <v>13.76</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="46" t="s">
         <v>823</v>
       </c>
@@ -58478,7 +58478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="46" t="s">
         <v>825</v>
       </c>
@@ -58518,7 +58518,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="42" t="s">
         <v>831</v>
       </c>
@@ -58546,7 +58546,7 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="46" t="s">
         <v>835</v>
       </c>
@@ -58792,7 +58792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="46" t="s">
         <v>871</v>
       </c>
@@ -58806,7 +58806,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="46" t="s">
         <v>873</v>
       </c>
@@ -58890,7 +58890,7 @@
         <v>19.170000000000002</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="46" t="s">
         <v>885</v>
       </c>
@@ -58988,7 +58988,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="46" t="s">
         <v>899</v>
       </c>
@@ -59002,7 +59002,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="46" t="s">
         <v>901</v>
       </c>
@@ -59016,7 +59016,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="46" t="s">
         <v>903</v>
       </c>
@@ -59028,7 +59028,7 @@
       </c>
       <c r="D428" s="48"/>
     </row>
-    <row r="429" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="46" t="s">
         <v>906</v>
       </c>
@@ -59040,7 +59040,7 @@
       </c>
       <c r="D429" s="48"/>
     </row>
-    <row r="430" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="46" t="s">
         <v>908</v>
       </c>
@@ -59054,7 +59054,7 @@
         <v>13.11</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="46" t="s">
         <v>910</v>
       </c>
@@ -59180,7 +59180,7 @@
         <v>11.32</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="46" t="s">
         <v>928</v>
       </c>
@@ -59194,7 +59194,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="46" t="s">
         <v>930</v>
       </c>
@@ -59274,7 +59274,7 @@
       </c>
       <c r="D446" s="48"/>
     </row>
-    <row r="447" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="46" t="s">
         <v>942</v>
       </c>
@@ -59316,7 +59316,7 @@
         <v>12.58</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="46" t="s">
         <v>948</v>
       </c>
@@ -59512,7 +59512,7 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="46" t="s">
         <v>976</v>
       </c>
@@ -59568,7 +59568,7 @@
         <v>12.74</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="46" t="s">
         <v>984</v>
       </c>
@@ -59652,7 +59652,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="46" t="s">
         <v>996</v>
       </c>
@@ -59736,7 +59736,7 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="46" t="s">
         <v>1008</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="46" t="s">
         <v>1028</v>
       </c>
@@ -59904,7 +59904,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="46" t="s">
         <v>1032</v>
       </c>
@@ -59918,7 +59918,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="46" t="s">
         <v>1034</v>
       </c>
@@ -59932,7 +59932,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="46" t="s">
         <v>1036</v>
       </c>
@@ -60086,7 +60086,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="46" t="s">
         <v>1058</v>
       </c>
@@ -60170,7 +60170,7 @@
         <v>23.51</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="46" t="s">
         <v>1070</v>
       </c>
@@ -60254,7 +60254,7 @@
         <v>12.66</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="46" t="s">
         <v>1082</v>
       </c>
@@ -60352,7 +60352,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="46" t="s">
         <v>1096</v>
       </c>
@@ -60366,7 +60366,7 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="46" t="s">
         <v>1098</v>
       </c>
@@ -60394,7 +60394,7 @@
         <v>14.36</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="46" t="s">
         <v>1102</v>
       </c>
@@ -60408,7 +60408,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="46" t="s">
         <v>1104</v>
       </c>
@@ -60562,7 +60562,7 @@
         <v>12.38</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="46" t="s">
         <v>1126</v>
       </c>
@@ -60808,7 +60808,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="46" t="s">
         <v>1162</v>
       </c>
@@ -68608,7 +68608,7 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>72</v>
       </c>
@@ -68622,7 +68622,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>74</v>
       </c>
@@ -68636,7 +68636,7 @@
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>76</v>
       </c>
@@ -68720,7 +68720,7 @@
         <v>24.54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>88</v>
       </c>
@@ -68776,7 +68776,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>96</v>
       </c>
@@ -68790,7 +68790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>98</v>
       </c>
@@ -68804,7 +68804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>100</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>111</v>
       </c>
@@ -68884,7 +68884,7 @@
       </c>
       <c r="D32" s="48"/>
     </row>
-    <row r="33" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>113</v>
       </c>
@@ -68898,7 +68898,7 @@
         <v>24.65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="46" t="s">
         <v>115</v>
       </c>
@@ -68940,7 +68940,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>121</v>
       </c>
@@ -68954,7 +68954,7 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>123</v>
       </c>
@@ -68968,7 +68968,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>125</v>
       </c>
@@ -68982,7 +68982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>127</v>
       </c>
@@ -68996,7 +68996,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>129</v>
       </c>
@@ -69010,7 +69010,7 @@
         <v>14.06</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
         <v>131</v>
       </c>
@@ -69064,7 +69064,7 @@
       </c>
       <c r="D45" s="48"/>
     </row>
-    <row r="46" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
         <v>139</v>
       </c>
@@ -69092,7 +69092,7 @@
         <v>20.34</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="46" t="s">
         <v>143</v>
       </c>
@@ -69106,7 +69106,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
         <v>145</v>
       </c>
@@ -69120,7 +69120,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="46" t="s">
         <v>147</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
         <v>161</v>
       </c>
@@ -69232,7 +69232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="46" t="s">
         <v>163</v>
       </c>
@@ -69246,7 +69246,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
         <v>165</v>
       </c>
@@ -69260,7 +69260,7 @@
         <v>18.059999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
         <v>167</v>
       </c>
@@ -69300,7 +69300,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
         <v>173</v>
       </c>
@@ -69328,7 +69328,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
         <v>177</v>
       </c>
@@ -69538,7 +69538,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="46" t="s">
         <v>207</v>
       </c>
@@ -69608,7 +69608,7 @@
         <v>25.61</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="46" t="s">
         <v>217</v>
       </c>
@@ -69622,7 +69622,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="46" t="s">
         <v>219</v>
       </c>
@@ -69776,7 +69776,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="46" t="s">
         <v>241</v>
       </c>
@@ -69930,7 +69930,7 @@
         <v>20.77</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="46" t="s">
         <v>263</v>
       </c>
@@ -70336,7 +70336,7 @@
         <v>18.27</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="46" t="s">
         <v>321</v>
       </c>
@@ -70434,7 +70434,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="46" t="s">
         <v>335</v>
       </c>
@@ -70462,7 +70462,7 @@
         <v>20.27</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="46" t="s">
         <v>339</v>
       </c>
@@ -70588,7 +70588,7 @@
         <v>22.76</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="46" t="s">
         <v>357</v>
       </c>
@@ -70602,7 +70602,7 @@
         <v>22.76</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="46" t="s">
         <v>359</v>
       </c>
@@ -70672,7 +70672,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="46" t="s">
         <v>369</v>
       </c>
@@ -70686,7 +70686,7 @@
         <v>26.06</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="46" t="s">
         <v>371</v>
       </c>
@@ -70700,7 +70700,7 @@
         <v>25.53</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="46" t="s">
         <v>373</v>
       </c>
@@ -70714,7 +70714,7 @@
         <v>25.53</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="46" t="s">
         <v>375</v>
       </c>
@@ -70742,7 +70742,7 @@
         <v>21.48</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="46" t="s">
         <v>379</v>
       </c>
@@ -70784,7 +70784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="46" t="s">
         <v>385</v>
       </c>
@@ -71008,7 +71008,7 @@
         <v>18.22</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="46" t="s">
         <v>417</v>
       </c>
@@ -71036,7 +71036,7 @@
         <v>17.170000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="46" t="s">
         <v>421</v>
       </c>
@@ -71064,7 +71064,7 @@
         <v>16.07</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="46" t="s">
         <v>425</v>
       </c>
@@ -71078,7 +71078,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="46" t="s">
         <v>427</v>
       </c>
@@ -71176,7 +71176,7 @@
         <v>15.11</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="46" t="s">
         <v>441</v>
       </c>
@@ -71260,7 +71260,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="46" t="s">
         <v>453</v>
       </c>
@@ -71344,7 +71344,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="46" t="s">
         <v>465</v>
       </c>
@@ -71440,7 +71440,7 @@
         <v>14.39</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="46" t="s">
         <v>479</v>
       </c>
@@ -71454,7 +71454,7 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="46" t="s">
         <v>481</v>
       </c>
@@ -71578,7 +71578,7 @@
         <v>20.37</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="46" t="s">
         <v>499</v>
       </c>
@@ -71606,7 +71606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="46" t="s">
         <v>503</v>
       </c>
@@ -71728,7 +71728,7 @@
         <v>19.34</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="46" t="s">
         <v>521</v>
       </c>
@@ -71854,7 +71854,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="46" t="s">
         <v>539</v>
       </c>
@@ -72088,7 +72088,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="46" t="s">
         <v>573</v>
       </c>
@@ -72172,7 +72172,7 @@
         <v>11.78</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="46" t="s">
         <v>585</v>
       </c>
@@ -72228,7 +72228,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="46" t="s">
         <v>593</v>
       </c>
@@ -72242,7 +72242,7 @@
         <v>15.39</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="46" t="s">
         <v>595</v>
       </c>
@@ -72256,7 +72256,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="46" t="s">
         <v>597</v>
       </c>
@@ -72368,7 +72368,7 @@
         <v>13.96</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="46" t="s">
         <v>613</v>
       </c>
@@ -72382,7 +72382,7 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="46" t="s">
         <v>615</v>
       </c>
@@ -72452,7 +72452,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="46" t="s">
         <v>625</v>
       </c>
@@ -72606,7 +72606,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="46" t="s">
         <v>647</v>
       </c>
@@ -72992,7 +72992,7 @@
       </c>
       <c r="D327" s="48"/>
     </row>
-    <row r="328" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="46" t="s">
         <v>703</v>
       </c>
@@ -73028,7 +73028,7 @@
       </c>
       <c r="D330" s="48"/>
     </row>
-    <row r="331" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="46" t="s">
         <v>709</v>
       </c>
@@ -73068,7 +73068,7 @@
       </c>
       <c r="D333" s="48"/>
     </row>
-    <row r="334" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="46" t="s">
         <v>715</v>
       </c>
@@ -73096,7 +73096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="46" t="s">
         <v>719</v>
       </c>
@@ -73122,7 +73122,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="46" t="s">
         <v>723</v>
       </c>
@@ -73226,7 +73226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="46" t="s">
         <v>739</v>
       </c>
@@ -73252,7 +73252,7 @@
       </c>
       <c r="D347" s="48"/>
     </row>
-    <row r="348" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="46" t="s">
         <v>743</v>
       </c>
@@ -73276,7 +73276,7 @@
       </c>
       <c r="D349" s="48"/>
     </row>
-    <row r="350" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="46" t="s">
         <v>747</v>
       </c>
@@ -73302,7 +73302,7 @@
       </c>
       <c r="D351" s="48"/>
     </row>
-    <row r="352" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="46" t="s">
         <v>751</v>
       </c>
@@ -73316,7 +73316,7 @@
         <v>17.98</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="46" t="s">
         <v>753</v>
       </c>
@@ -73406,7 +73406,7 @@
       </c>
       <c r="D359" s="48"/>
     </row>
-    <row r="360" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="46" t="s">
         <v>767</v>
       </c>
@@ -73788,7 +73788,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="46" t="s">
         <v>823</v>
       </c>
@@ -73842,7 +73842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="42" t="s">
         <v>831</v>
       </c>
@@ -74120,7 +74120,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="46" t="s">
         <v>871</v>
       </c>
@@ -74134,7 +74134,7 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="46" t="s">
         <v>873</v>
       </c>
@@ -74316,7 +74316,7 @@
         <v>12.01</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="46" t="s">
         <v>899</v>
       </c>
@@ -74330,7 +74330,7 @@
         <v>12.56</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="46" t="s">
         <v>901</v>
       </c>
@@ -74344,7 +74344,7 @@
         <v>12.56</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="46" t="s">
         <v>903</v>
       </c>
@@ -74356,7 +74356,7 @@
       </c>
       <c r="D428" s="48"/>
     </row>
-    <row r="429" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="46" t="s">
         <v>906</v>
       </c>
@@ -74644,7 +74644,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="46" t="s">
         <v>948</v>
       </c>
@@ -74976,7 +74976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="46" t="s">
         <v>996</v>
       </c>
@@ -75058,7 +75058,7 @@
         <v>11.78</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="46" t="s">
         <v>1008</v>
       </c>
@@ -75250,7 +75250,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="46" t="s">
         <v>1036</v>
       </c>
@@ -75562,7 +75562,7 @@
       </c>
       <c r="D516" s="48"/>
     </row>
-    <row r="517" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="46" t="s">
         <v>1082</v>
       </c>
@@ -75672,7 +75672,7 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="46" t="s">
         <v>1098</v>
       </c>
@@ -75860,7 +75860,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="46" t="s">
         <v>1126</v>
       </c>
